--- a/data/evaluation/evaluation_South_Summer_Grapes.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Grapes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1852.637666869035</v>
+        <v>1884.188683111829</v>
       </c>
       <c r="C4" t="n">
-        <v>5293754.550060313</v>
+        <v>5404202.106324611</v>
       </c>
       <c r="D4" t="n">
-        <v>2300.816061761634</v>
+        <v>2324.693981220886</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01955920747306439</v>
+        <v>-0.04083103295482604</v>
       </c>
     </row>
     <row r="5">
